--- a/BET2023GridJitterSummary.xlsx
+++ b/BET2023GridJitterSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\PacificCommunity\ofp-sam\bet-2023-grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A23623-B05C-4965-B284-38CDCD31A90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7A75BA-3D56-473F-B59C-643C13832B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30420" yWindow="1485" windowWidth="23010" windowHeight="12360" activeTab="1" xr2:uid="{FAD370C1-9D9C-44FD-A36C-5E7DE2860D26}"/>
   </bookViews>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +333,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -795,15 +798,15 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14"/>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15"/>
       <c r="G3" s="5"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="6"/>
       <c r="N3" s="7"/>
     </row>
@@ -811,15 +814,15 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14"/>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15"/>
       <c r="G4" s="5"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
@@ -827,17 +830,17 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
         <v>-1.2850300000000001E-8</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
     </row>
@@ -845,17 +848,17 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
         <v>-0.18526500000000001</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
@@ -863,17 +866,17 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
         <v>-0.13374800000000001</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
     </row>
@@ -881,17 +884,17 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
         <v>-2.4854499999999999E-9</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
     </row>
@@ -899,17 +902,17 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
         <v>-3.0884299999999998E-9</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
     </row>
@@ -917,17 +920,17 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
         <v>-2.8091700000000001E-8</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="L10" s="9"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
@@ -935,17 +938,17 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
         <v>-3.3412799999999999E-9</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
     </row>
@@ -953,15 +956,15 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14"/>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="5"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
     </row>
@@ -969,15 +972,15 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15"/>
       <c r="G13" s="5"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
     </row>
@@ -985,15 +988,15 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14"/>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="5"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
     </row>
@@ -1001,15 +1004,15 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="5"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
     </row>
@@ -1017,15 +1020,15 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14"/>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="5"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="6"/>
       <c r="N16" s="7"/>
     </row>
@@ -1033,15 +1036,15 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14"/>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="5"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="6"/>
       <c r="N17" s="7"/>
     </row>
@@ -1049,17 +1052,17 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
         <v>-2.6887299999999998E-7</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
     </row>
@@ -1067,15 +1070,15 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14"/>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="5"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
     </row>
@@ -1083,17 +1086,17 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
         <v>-1.8330099999999999E-6</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
     </row>
@@ -1101,17 +1104,17 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
         <v>-7.7057699999999998E-8</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
     </row>
@@ -1119,17 +1122,17 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
         <v>-7.7186E-8</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
     </row>
@@ -1137,17 +1140,17 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="13">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14">
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
         <v>-8.7830300000000003E-8</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="6"/>
       <c r="N23" s="7"/>
     </row>
@@ -1155,17 +1158,17 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="13">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
         <v>-7.6379499999999999E-8</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="6"/>
       <c r="N24" s="7"/>
     </row>
@@ -1173,17 +1176,17 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14">
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
         <v>-7.6655499999999994E-8</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="6"/>
       <c r="N25" s="7"/>
     </row>
@@ -1191,17 +1194,17 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14">
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
         <v>-5.1744499999999997E-8</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="6"/>
       <c r="N26" s="7"/>
     </row>
@@ -1209,17 +1212,17 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="13">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14">
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
         <v>-6.8253199999999993E-8</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="6"/>
       <c r="N27" s="7"/>
     </row>
@@ -1227,17 +1230,17 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
         <v>-6.8312400000000005E-8</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="L28" s="9"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="6"/>
       <c r="N28" s="7"/>
     </row>
@@ -1245,17 +1248,17 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="13">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
         <v>-6.8324699999999995E-8</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="6"/>
       <c r="N29" s="7"/>
     </row>
@@ -1297,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7FEEB7-C818-4938-988B-41606398ACB8}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,7 +1435,9 @@
       <c r="B4">
         <v>-1028063.94</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>0.34300000000000003</v>
+      </c>
       <c r="D4" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1446,9 +1451,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="10">
+      <c r="K4" s="1">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9">
+        <v>-1028081.52</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="N4" s="11">
         <v>4.3899999999999998E-3</v>
       </c>
     </row>
@@ -1623,20 +1635,20 @@
       <c r="M12" s="6">
         <v>0.28799999999999998</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="12">
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="S12">
-        <f>L12-B3</f>
-        <v>-1028081.83</v>
+        <f>L12-B12</f>
+        <v>-90.989999999990687</v>
       </c>
       <c r="T12">
-        <f>M12-C3</f>
-        <v>0.28799999999999998</v>
+        <f>M12-C12</f>
+        <v>-2.4000000000000021E-2</v>
       </c>
       <c r="U12">
         <f>100*T12</f>
-        <v>28.799999999999997</v>
+        <v>-2.4000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1671,7 +1683,7 @@
       <c r="M13" s="6">
         <v>0.33</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="11">
         <v>4.3899999999999998E-3</v>
       </c>
       <c r="S13">
@@ -1719,7 +1731,7 @@
       <c r="M14" s="6">
         <v>0.35599999999999998</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="11">
         <v>3.065E-2</v>
       </c>
       <c r="S14">
@@ -2007,7 +2019,7 @@
       <c r="M20" s="6">
         <v>0.376</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="11">
         <v>-4.24E-2</v>
       </c>
       <c r="T20">
@@ -2020,16 +2032,16 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17">
         <v>-1.02369E-9</v>
       </c>
       <c r="G21" s="5"/>
@@ -2042,16 +2054,16 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
         <v>-3.9754900000000003E-11</v>
       </c>
       <c r="G22" s="5"/>
@@ -2064,16 +2076,16 @@
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
         <v>-5.6287299999999999E-11</v>
       </c>
       <c r="G23" s="5"/>
@@ -2086,16 +2098,16 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17"/>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2106,16 +2118,16 @@
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17"/>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2126,16 +2138,16 @@
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17"/>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18"/>
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2146,16 +2158,16 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18"/>
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2166,16 +2178,16 @@
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17"/>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18"/>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2186,16 +2198,16 @@
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
